--- a/01-Excel/02-数学函数/数学函数.xlsx
+++ b/01-Excel/02-数学函数/数学函数.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/02-数学函数/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ztnn/Documents/0399/内容研发与合作/合作05_慕课网_v191223/COP05.5_课程福利/2-Excel模板/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BB1D00-07D2-B045-B7E3-B5CEDDDD7262}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="27560" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="1180" windowWidth="27560" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -370,7 +364,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -400,7 +394,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -448,6 +441,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,14 +453,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -490,9 +503,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -760,19 +770,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="3" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="3"/>
     <col min="7" max="7" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="3" customWidth="1"/>
@@ -803,32 +813,36 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5">
+      <c r="E3" s="5">
+        <f>SQRT(4)</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="6">
         <v>20200111</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>6880</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="3">
@@ -837,23 +851,27 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5">
+      <c r="E4" s="5">
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="G4" s="6">
         <v>20200101</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>7500</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="3">
@@ -862,19 +880,23 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5">
+      <c r="E5" s="5">
+        <f>SUM(H3:H14)</f>
+        <v>138980</v>
+      </c>
+      <c r="G5" s="6">
         <v>20200102</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>8600</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -889,60 +911,72 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5">
+      <c r="E6" s="5">
+        <f>AVERAGE(1,2,3,4,5)</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="6">
         <v>20200103</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>9000</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="5">
+      <c r="E7" s="5">
+        <f>INT(1.534)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
         <v>20200108</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>9000</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="5">
+      <c r="E8" s="5">
+        <f>EVEN(7.78)</f>
+        <v>8</v>
+      </c>
+      <c r="G8" s="6">
         <v>20200104</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>9500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L8" s="3">
@@ -951,10 +985,10 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>20200105</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>11000</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -969,10 +1003,10 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>20200109</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>12100</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -987,40 +1021,40 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>20200106</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>12500</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>20200107</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>13500</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>20200112</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>16400</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>20200110</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>23000</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1032,10 +1066,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H1 H15:H1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H14">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01-Excel/02-数学函数/数学函数.xlsx
+++ b/01-Excel/02-数学函数/数学函数.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ztnn/Documents/0399/内容研发与合作/合作05_慕课网_v191223/COP05.5_课程福利/2-Excel模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/02-数学函数/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AB328A-2571-8846-9E93-0C71BD8FEBA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1180" windowWidth="27560" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -364,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -394,6 +400,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -441,9 +448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,31 +457,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -503,6 +490,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -770,19 +760,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="230" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="3" width="10.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="3"/>
     <col min="7" max="7" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="3" customWidth="1"/>
@@ -813,36 +803,36 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f>SQRT(4)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>20200111</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>6880</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="3">
@@ -851,27 +841,27 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>20200101</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>7500</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="3">
@@ -880,23 +870,23 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f>SUM(H3:H14)</f>
         <v>138980</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>20200102</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>8600</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -911,72 +901,72 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f>AVERAGE(1,2,3,4,5)</f>
         <v>3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>20200103</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>9000</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f>INT(1.534)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>20200108</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>9000</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f>EVEN(7.78)</f>
         <v>8</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>20200104</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>9500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="L8" s="3">
@@ -985,10 +975,10 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>20200105</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>11000</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -1003,10 +993,10 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>20200109</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>12100</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -1021,40 +1011,40 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>20200106</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>12500</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>20200107</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>13500</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>20200112</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>16400</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>20200110</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>23000</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H15" s="6"/>
+      <c r="H15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1066,10 +1056,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H1 H15:H1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H14">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01-Excel/02-数学函数/数学函数.xlsx
+++ b/01-Excel/02-数学函数/数学函数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/02-数学函数/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AB328A-2571-8846-9E93-0C71BD8FEBA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C513D44B-1F70-B046-A7D3-BBCFC23C6B5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -763,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="230" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="230" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1056,9 +1066,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H1 H15:H1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H14">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H14">
+  <conditionalFormatting sqref="H3:H14">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
